--- a/Documents/schedule_chart.xlsx
+++ b/Documents/schedule_chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,6 +181,14 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -426,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -485,6 +493,20 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:N33"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,12 +921,12 @@
       <c r="F5" s="7"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="18"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -912,97 +934,97 @@
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="16"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="16"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="16"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="16"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="16"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="12"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
       <c r="M11" s="12"/>
       <c r="N11" s="21"/>
     </row>
@@ -1010,367 +1032,524 @@
       <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="18"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="42"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="16"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="16"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="16"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="20"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="45"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="47"/>
+    </row>
+    <row r="17" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+    </row>
+    <row r="18" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="16"/>
-    </row>
-    <row r="19" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+    </row>
+    <row r="19" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="16"/>
-    </row>
-    <row r="20" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+    </row>
+    <row r="20" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="20"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="21"/>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+    </row>
+    <row r="21" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+    </row>
+    <row r="22" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="16"/>
-    </row>
-    <row r="23" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+    </row>
+    <row r="23" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="16"/>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+    </row>
+    <row r="24" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="21"/>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+    </row>
+    <row r="25" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="13"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="41"/>
       <c r="M25" s="13"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N25" s="23"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+    </row>
+    <row r="26" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+    </row>
+    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+    </row>
+    <row r="28" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="14"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="44"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="16"/>
-    </row>
-    <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N28" s="25"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+    </row>
+    <row r="29" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="20"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="21"/>
-    </row>
-    <row r="30" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+    </row>
+    <row r="30" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="13"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
       <c r="N30" s="23"/>
-    </row>
-    <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+    </row>
+    <row r="31" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="24"/>
-    </row>
-    <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+    </row>
+    <row r="32" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
       <c r="N32" s="25"/>
-    </row>
-    <row r="33" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+    </row>
+    <row r="33" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="29"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
